--- a/Code/Results/Cases/Case_0_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_83/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06641331345064572</v>
+        <v>0.02226487226428731</v>
       </c>
       <c r="D2">
-        <v>0.1604451951832004</v>
+        <v>0.1942197725494594</v>
       </c>
       <c r="E2">
-        <v>0.6469297500324487</v>
+        <v>0.2625407690567556</v>
       </c>
       <c r="F2">
-        <v>0.1145137926396238</v>
+        <v>0.5831919000491652</v>
       </c>
       <c r="G2">
-        <v>0.2493248535230208</v>
+        <v>0.2793809808603456</v>
       </c>
       <c r="H2">
-        <v>0.1155993084123921</v>
+        <v>0.4517105476455114</v>
       </c>
       <c r="I2">
-        <v>0.2187420901080515</v>
+        <v>0.318431087807987</v>
       </c>
       <c r="J2">
-        <v>1.377684409687959</v>
+        <v>0.4494539272028533</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>33.55548329174599</v>
+        <v>10.84818221959324</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7255979605632348</v>
+        <v>1.385613698168555</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05786659544954631</v>
+        <v>0.01946368688227551</v>
       </c>
       <c r="D3">
-        <v>0.1375221014080665</v>
+        <v>0.1949775260558084</v>
       </c>
       <c r="E3">
-        <v>0.5422877259713488</v>
+        <v>0.2447303387886919</v>
       </c>
       <c r="F3">
-        <v>0.08500262829559802</v>
+        <v>0.6114998318860358</v>
       </c>
       <c r="G3">
-        <v>0.1985987681809362</v>
+        <v>0.2872547831137737</v>
       </c>
       <c r="H3">
-        <v>0.1069603023734871</v>
+        <v>0.4632136331428001</v>
       </c>
       <c r="I3">
-        <v>0.182887908069965</v>
+        <v>0.3248150021420884</v>
       </c>
       <c r="J3">
-        <v>1.155172977053837</v>
+        <v>0.4051300180841508</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.66401644527684</v>
+        <v>9.512207204291258</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5991522186432405</v>
+        <v>1.425936122475548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05262785574268491</v>
+        <v>0.01773476375910121</v>
       </c>
       <c r="D4">
-        <v>0.1255006206921365</v>
+        <v>0.1956772522827066</v>
       </c>
       <c r="E4">
-        <v>0.4832037943079683</v>
+        <v>0.2340505805380388</v>
       </c>
       <c r="F4">
-        <v>0.07447491602113132</v>
+        <v>0.6300841584133643</v>
       </c>
       <c r="G4">
-        <v>0.1724758339423786</v>
+        <v>0.2927764708682687</v>
       </c>
       <c r="H4">
-        <v>0.1040355145076575</v>
+        <v>0.4708084202134373</v>
       </c>
       <c r="I4">
-        <v>0.1642789518627978</v>
+        <v>0.3292969436077975</v>
       </c>
       <c r="J4">
-        <v>1.028185009795777</v>
+        <v>0.3782208815716785</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.77528139929814</v>
+        <v>8.688592963863641</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5371412148656418</v>
+        <v>1.453251554731835</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05049362286486314</v>
+        <v>0.01702803181346013</v>
       </c>
       <c r="D5">
-        <v>0.1210133977275234</v>
+        <v>0.1960205567107778</v>
       </c>
       <c r="E5">
-        <v>0.4601410969446533</v>
+        <v>0.229760960970502</v>
       </c>
       <c r="F5">
-        <v>0.07176904656198957</v>
+        <v>0.6379550542237986</v>
       </c>
       <c r="G5">
-        <v>0.1628767004630944</v>
+        <v>0.2951960149413466</v>
       </c>
       <c r="H5">
-        <v>0.1033516045469725</v>
+        <v>0.4740356636906071</v>
       </c>
       <c r="I5">
-        <v>0.1574116719321417</v>
+        <v>0.3312625328013539</v>
       </c>
       <c r="J5">
-        <v>0.9783174118745706</v>
+        <v>0.367328698961586</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.61997408099359</v>
+        <v>8.352105464001397</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5151511002050029</v>
+        <v>1.465015707467018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05013922987559027</v>
+        <v>0.01691055007075448</v>
       </c>
       <c r="D6">
-        <v>0.1202905846106717</v>
+        <v>0.1960810523530512</v>
       </c>
       <c r="E6">
-        <v>0.4563658086743985</v>
+        <v>0.2290523933242596</v>
       </c>
       <c r="F6">
-        <v>0.07140724083179606</v>
+        <v>0.6392798438445801</v>
       </c>
       <c r="G6">
-        <v>0.1613404609798152</v>
+        <v>0.2956079121081814</v>
       </c>
       <c r="H6">
-        <v>0.1032664247689041</v>
+        <v>0.4745794941889869</v>
       </c>
       <c r="I6">
-        <v>0.1563110432627965</v>
+        <v>0.3315972580898787</v>
       </c>
       <c r="J6">
-        <v>0.9701371817801032</v>
+        <v>0.3655244052621072</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.42928512032518</v>
+        <v>8.296179561475412</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5116812781248541</v>
+        <v>1.467007065022116</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05259907222959725</v>
+        <v>0.0177252412545883</v>
       </c>
       <c r="D7">
-        <v>0.1254385571357659</v>
+        <v>0.1956816477398888</v>
       </c>
       <c r="E7">
-        <v>0.4828889803568899</v>
+        <v>0.2339924786881014</v>
       </c>
       <c r="F7">
-        <v>0.07443238717079126</v>
+        <v>0.6301891094183425</v>
       </c>
       <c r="G7">
-        <v>0.1723423944805376</v>
+        <v>0.2928084201866454</v>
       </c>
       <c r="H7">
-        <v>0.1040243403021108</v>
+        <v>0.4708514101293702</v>
       </c>
       <c r="I7">
-        <v>0.1641836027945942</v>
+        <v>0.3293228916749271</v>
       </c>
       <c r="J7">
-        <v>1.027505481037196</v>
+        <v>0.3780736924777557</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.75961992751917</v>
+        <v>8.684058477147573</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5368321288335096</v>
+        <v>1.453407661025764</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06346340027605635</v>
+        <v>0.02130093284080203</v>
       </c>
       <c r="D8">
-        <v>0.1520427505275137</v>
+        <v>0.1944318903473459</v>
       </c>
       <c r="E8">
-        <v>0.6095803927127577</v>
+        <v>0.256345436200931</v>
       </c>
       <c r="F8">
-        <v>0.1025419967852521</v>
+        <v>0.5926998035474895</v>
       </c>
       <c r="G8">
-        <v>0.2306453466171874</v>
+        <v>0.2819512146087746</v>
       </c>
       <c r="H8">
-        <v>0.112065712191125</v>
+        <v>0.4555655663145188</v>
       </c>
       <c r="I8">
-        <v>0.2055780822119466</v>
+        <v>0.3205142481139092</v>
       </c>
       <c r="J8">
-        <v>1.298589185947975</v>
+        <v>0.4341053968389872</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.84033388865589</v>
+        <v>10.38821143663955</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6783171689008896</v>
+        <v>1.398979976293305</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08494659932240722</v>
+        <v>0.02823863289725637</v>
       </c>
       <c r="D9">
-        <v>0.2273848807939771</v>
+        <v>0.1938797188295922</v>
       </c>
       <c r="E9">
-        <v>0.9176193561850425</v>
+        <v>0.3023042043232351</v>
       </c>
       <c r="F9">
-        <v>0.2382225558687345</v>
+        <v>0.5289498476475174</v>
       </c>
       <c r="G9">
-        <v>0.3982277400921532</v>
+        <v>0.2662646868179053</v>
       </c>
       <c r="H9">
-        <v>0.1522680535498466</v>
+        <v>0.4298738527928663</v>
       </c>
       <c r="I9">
-        <v>0.3223858097605188</v>
+        <v>0.3078007008672401</v>
       </c>
       <c r="J9">
-        <v>1.941964715038324</v>
+        <v>0.5465838604959572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>45.12294141803693</v>
+        <v>13.70514322334702</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.119820746588033</v>
+        <v>1.312995346068064</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1010821471330559</v>
+        <v>0.03328724380502024</v>
       </c>
       <c r="D10">
-        <v>0.3130987861312349</v>
+        <v>0.1946879194204598</v>
       </c>
       <c r="E10">
-        <v>1.223851575597379</v>
+        <v>0.3375092451963155</v>
       </c>
       <c r="F10">
-        <v>0.432226770393882</v>
+        <v>0.4883700950012191</v>
       </c>
       <c r="G10">
-        <v>0.5831311249872186</v>
+        <v>0.258367602787402</v>
       </c>
       <c r="H10">
-        <v>0.2087723649820816</v>
+        <v>0.4136971627431905</v>
       </c>
       <c r="I10">
-        <v>0.4486197201640749</v>
+        <v>0.3013778854286784</v>
       </c>
       <c r="J10">
-        <v>2.565382399479205</v>
+        <v>0.6310748923327196</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>56.74292966594805</v>
+        <v>16.12947485575597</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.631716382008619</v>
+        <v>1.263102542856842</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.108612964497496</v>
+        <v>0.03557284802597849</v>
       </c>
       <c r="D11">
-        <v>0.3666488961532224</v>
+        <v>0.195332428891632</v>
       </c>
       <c r="E11">
-        <v>1.401727222776287</v>
+        <v>0.3538719585472307</v>
       </c>
       <c r="F11">
-        <v>0.5617598911163952</v>
+        <v>0.4713346292938496</v>
       </c>
       <c r="G11">
-        <v>0.6938886624354978</v>
+        <v>0.2556090768305381</v>
       </c>
       <c r="H11">
-        <v>0.2457369432868717</v>
+        <v>0.4069430900491824</v>
       </c>
       <c r="I11">
-        <v>0.5231728891112297</v>
+        <v>0.2991197182559588</v>
       </c>
       <c r="J11">
-        <v>2.921803495630229</v>
+        <v>0.6699791705659379</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>62.92599021035437</v>
+        <v>17.23029923280217</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.944699996006591</v>
+        <v>1.243426911844409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1115131007680077</v>
+        <v>0.03643670308539981</v>
       </c>
       <c r="D12">
-        <v>0.3905244827064962</v>
+        <v>0.1956174609620689</v>
       </c>
       <c r="E12">
-        <v>1.478614764434539</v>
+        <v>0.360121100839379</v>
       </c>
       <c r="F12">
-        <v>0.6205022874669055</v>
+        <v>0.4650942477034796</v>
       </c>
       <c r="G12">
-        <v>0.7420164124948627</v>
+        <v>0.2546883016878922</v>
       </c>
       <c r="H12">
-        <v>0.2623103279617993</v>
+        <v>0.404474080211628</v>
       </c>
       <c r="I12">
-        <v>0.5553440193693291</v>
+        <v>0.298362562173395</v>
       </c>
       <c r="J12">
-        <v>3.074759887605097</v>
+        <v>0.6847842435452662</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>65.48760985551462</v>
+        <v>17.64692037473128</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.081743454341023</v>
+        <v>1.236422304067531</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1108857861211021</v>
+        <v>0.03625073102236342</v>
       </c>
       <c r="D13">
-        <v>0.3851815920209418</v>
+        <v>0.1955542329107089</v>
       </c>
       <c r="E13">
-        <v>1.461523809847733</v>
+        <v>0.3587728331281852</v>
       </c>
       <c r="F13">
-        <v>0.6073202191131557</v>
+        <v>0.4664287672922676</v>
       </c>
       <c r="G13">
-        <v>0.7313139181392501</v>
+        <v>0.2548810372646386</v>
       </c>
       <c r="H13">
-        <v>0.2586012218765035</v>
+        <v>0.4050018582232298</v>
       </c>
       <c r="I13">
-        <v>0.5482013310288636</v>
+        <v>0.2985212314993291</v>
       </c>
       <c r="J13">
-        <v>3.040814406005012</v>
+        <v>0.6815923747773525</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>64.92366712289032</v>
+        <v>17.55720320398649</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.051220118716856</v>
+        <v>1.237910841088137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.108850397357827</v>
+        <v>0.03564395141593479</v>
       </c>
       <c r="D14">
-        <v>0.3685271097840257</v>
+        <v>0.1953550506857624</v>
       </c>
       <c r="E14">
-        <v>1.407824937971569</v>
+        <v>0.3543850008359044</v>
       </c>
       <c r="F14">
-        <v>0.5663642899866588</v>
+        <v>0.4708169757259348</v>
       </c>
       <c r="G14">
-        <v>0.6977028925501827</v>
+        <v>0.255530819971284</v>
       </c>
       <c r="H14">
-        <v>0.2470402040002995</v>
+        <v>0.4067381777297783</v>
       </c>
       <c r="I14">
-        <v>0.5257273711837485</v>
+        <v>0.2990554485649852</v>
       </c>
       <c r="J14">
-        <v>2.933957297071657</v>
+        <v>0.6711956999728557</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>63.1314829385235</v>
+        <v>17.26457933517418</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.955540163548989</v>
+        <v>1.242841629593158</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.107610917701578</v>
+        <v>0.03527206409580685</v>
       </c>
       <c r="D15">
-        <v>0.3588630163615392</v>
+        <v>0.1952384168356076</v>
       </c>
       <c r="E15">
-        <v>1.37635576105626</v>
+        <v>0.3517043111214235</v>
       </c>
       <c r="F15">
-        <v>0.5427083896270872</v>
+        <v>0.4735324761345368</v>
       </c>
       <c r="G15">
-        <v>0.6780260430228537</v>
+        <v>0.2559450726202073</v>
       </c>
       <c r="H15">
-        <v>0.240336812030165</v>
+        <v>0.4078133125189112</v>
       </c>
       <c r="I15">
-        <v>0.5125402482522006</v>
+        <v>0.2993955056240338</v>
       </c>
       <c r="J15">
-        <v>2.871189590910717</v>
+        <v>0.6648370937499521</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>62.06654150029345</v>
+        <v>17.08530954486667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.899658416052517</v>
+        <v>1.245920330420432</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1005952368556393</v>
+        <v>0.033137646365347</v>
       </c>
       <c r="D16">
-        <v>0.3099928584808112</v>
+        <v>0.1946514678783728</v>
       </c>
       <c r="E16">
-        <v>1.21327034515366</v>
+        <v>0.3364471474463215</v>
       </c>
       <c r="F16">
-        <v>0.4248469611122374</v>
+        <v>0.4895125550474191</v>
       </c>
       <c r="G16">
-        <v>0.5765894511978189</v>
+        <v>0.2585649913281003</v>
       </c>
       <c r="H16">
-        <v>0.2066485183715798</v>
+        <v>0.4141508670338538</v>
       </c>
       <c r="I16">
-        <v>0.4441929621084455</v>
+        <v>0.3015390313166435</v>
       </c>
       <c r="J16">
-        <v>2.544059284943472</v>
+        <v>0.6285422982145121</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>56.36304782053503</v>
+        <v>16.05749720377156</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.613351706567101</v>
+        <v>1.264450177200672</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09635037340603958</v>
+        <v>0.0318253755029474</v>
       </c>
       <c r="D17">
-        <v>0.2844677757770881</v>
+        <v>0.1943631077525225</v>
       </c>
       <c r="E17">
-        <v>1.125029951282784</v>
+        <v>0.3271784675847016</v>
       </c>
       <c r="F17">
-        <v>0.3649678944351678</v>
+        <v>0.4996847073363284</v>
       </c>
       <c r="G17">
-        <v>0.5223547498103329</v>
+        <v>0.2603885643911781</v>
       </c>
       <c r="H17">
-        <v>0.1893421986726906</v>
+        <v>0.4181948131340221</v>
       </c>
       <c r="I17">
-        <v>0.4073866099530505</v>
+        <v>0.3030257720317735</v>
       </c>
       <c r="J17">
-        <v>2.365669177481124</v>
+        <v>0.6064004653000268</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>53.13835440743389</v>
+        <v>15.42648697414222</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.461711807591939</v>
+        <v>1.276599635785175</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09392502715499518</v>
+        <v>0.03106955722915927</v>
       </c>
       <c r="D18">
-        <v>0.2710297727855817</v>
+        <v>0.1942232364310001</v>
       </c>
       <c r="E18">
-        <v>1.077570743568444</v>
+        <v>0.3218799145112428</v>
       </c>
       <c r="F18">
-        <v>0.334098194214917</v>
+        <v>0.505669187999878</v>
       </c>
       <c r="G18">
-        <v>0.4934717182902091</v>
+        <v>0.2615156881235876</v>
       </c>
       <c r="H18">
-        <v>0.18036822566566</v>
+        <v>0.420577609508932</v>
       </c>
       <c r="I18">
-        <v>0.3877057745784285</v>
+        <v>0.3039432133559927</v>
       </c>
       <c r="J18">
-        <v>2.269284971347673</v>
+        <v>0.5937088542182494</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>51.36035915117503</v>
+        <v>15.06335329408637</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.381449611889451</v>
+        <v>1.283871307155067</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09310623193509571</v>
+        <v>0.03081347451558258</v>
       </c>
       <c r="D19">
-        <v>0.2666653759490885</v>
+        <v>0.1941803071985504</v>
       </c>
       <c r="E19">
-        <v>1.061993097871934</v>
+        <v>0.3200914191615567</v>
       </c>
       <c r="F19">
-        <v>0.3241875379234145</v>
+        <v>0.5077182250057781</v>
       </c>
       <c r="G19">
-        <v>0.4840438218040219</v>
+        <v>0.2619106349767222</v>
       </c>
       <c r="H19">
-        <v>0.1774795553500894</v>
+        <v>0.4213940935729781</v>
       </c>
       <c r="I19">
-        <v>0.3812692596356229</v>
+        <v>0.30426446794079</v>
       </c>
       <c r="J19">
-        <v>2.237578571774492</v>
+        <v>0.5894190531731738</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>50.76982218015092</v>
+        <v>14.9403677571085</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.355333438682266</v>
+        <v>1.286381728642198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09680047096776434</v>
+        <v>0.03196517656748199</v>
       </c>
       <c r="D20">
-        <v>0.2870491530583905</v>
+        <v>0.1943911065535673</v>
       </c>
       <c r="E20">
-        <v>1.134063404894945</v>
+        <v>0.3281617453232997</v>
       </c>
       <c r="F20">
-        <v>0.3709542879282139</v>
+        <v>0.4985879828094895</v>
       </c>
       <c r="G20">
-        <v>0.5278773929241964</v>
+        <v>0.2601863150012775</v>
       </c>
       <c r="H20">
-        <v>0.191078348303293</v>
+        <v>0.4177584351150756</v>
       </c>
       <c r="I20">
-        <v>0.4111433331527081</v>
+        <v>0.3028610391219146</v>
       </c>
       <c r="J20">
-        <v>2.383979497814352</v>
+        <v>0.6087529313215043</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>53.47324700299089</v>
+        <v>15.4936787303526</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.47709981988865</v>
+        <v>1.275276866827085</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1094466580772178</v>
+        <v>0.03582222269362489</v>
       </c>
       <c r="D21">
-        <v>0.3733018907905574</v>
+        <v>0.195412433857868</v>
       </c>
       <c r="E21">
-        <v>1.423287638892276</v>
+        <v>0.3556723525297372</v>
       </c>
       <c r="F21">
-        <v>0.5780834986394225</v>
+        <v>0.4695222911303709</v>
       </c>
       <c r="G21">
-        <v>0.7073777463282056</v>
+        <v>0.2553365711517301</v>
       </c>
       <c r="H21">
-        <v>0.2503540535968369</v>
+        <v>0.406225760501556</v>
       </c>
       <c r="I21">
-        <v>0.5322030871235981</v>
+        <v>0.2988958569440285</v>
       </c>
       <c r="J21">
-        <v>2.964758896873263</v>
+        <v>0.6742474325743331</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>63.65074551173899</v>
+        <v>17.35053604639251</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.983052947261058</v>
+        <v>1.241381135215192</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1180253115535805</v>
+        <v>0.03833335759749446</v>
       </c>
       <c r="D22">
-        <v>0.4529267398113177</v>
+        <v>0.1963193201149807</v>
       </c>
       <c r="E22">
-        <v>1.673889662686804</v>
+        <v>0.373962183177909</v>
       </c>
       <c r="F22">
-        <v>0.77541777949763</v>
+        <v>0.4517563482205986</v>
       </c>
       <c r="G22">
-        <v>0.8641410489736074</v>
+        <v>0.2528905584068326</v>
       </c>
       <c r="H22">
-        <v>0.3054760717899967</v>
+        <v>0.3992057643418292</v>
       </c>
       <c r="I22">
-        <v>0.6363968119166046</v>
+        <v>0.2968765923085499</v>
       </c>
       <c r="J22">
-        <v>3.460535503611283</v>
+        <v>0.7174793926360792</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>71.72242548620795</v>
+        <v>18.56274586896438</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.431756776582688</v>
+        <v>1.221834276785557</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1134037967504042</v>
+        <v>0.03699402357742088</v>
       </c>
       <c r="D23">
-        <v>0.4072757524918984</v>
+        <v>0.1958129941760092</v>
       </c>
       <c r="E23">
-        <v>1.531794740150815</v>
+        <v>0.3641711682796256</v>
       </c>
       <c r="F23">
-        <v>0.6619407950030762</v>
+        <v>0.4611238784599188</v>
       </c>
       <c r="G23">
-        <v>0.775318930372876</v>
+        <v>0.2541285249779293</v>
       </c>
       <c r="H23">
-        <v>0.2739327680452703</v>
+        <v>0.4029045881427606</v>
       </c>
       <c r="I23">
-        <v>0.5775283774515003</v>
+        <v>0.2979011047864972</v>
       </c>
       <c r="J23">
-        <v>3.180191208563855</v>
+        <v>0.6943646690007483</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>67.22296872291798</v>
+        <v>17.91587162084102</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.176886743100567</v>
+        <v>1.232024427053432</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09659693612535136</v>
+        <v>0.03190197678875961</v>
       </c>
       <c r="D24">
-        <v>0.2858783492089856</v>
+        <v>0.1943783676760518</v>
       </c>
       <c r="E24">
-        <v>1.12996942676466</v>
+        <v>0.3277171118150619</v>
       </c>
       <c r="F24">
-        <v>0.3682369898656646</v>
+        <v>0.4990833876244238</v>
       </c>
       <c r="G24">
-        <v>0.5253735925353311</v>
+        <v>0.2602775070272827</v>
       </c>
       <c r="H24">
-        <v>0.190290453842124</v>
+        <v>0.4179555414651759</v>
       </c>
       <c r="I24">
-        <v>0.4094403990484565</v>
+        <v>0.3029353197833302</v>
       </c>
       <c r="J24">
-        <v>2.375682614499055</v>
+        <v>0.6076892634052342</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>53.32161099942209</v>
+        <v>15.4633024548009</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.470121774906829</v>
+        <v>1.275873998284965</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07909703728755346</v>
+        <v>0.02637009676713831</v>
       </c>
       <c r="D25">
-        <v>0.2033077601320343</v>
+        <v>0.1938202035343579</v>
       </c>
       <c r="E25">
-        <v>0.8246314472793586</v>
+        <v>0.2896294282097642</v>
       </c>
       <c r="F25">
-        <v>0.1893935209918851</v>
+        <v>0.5451192713015836</v>
       </c>
       <c r="G25">
-        <v>0.3448994171151014</v>
+        <v>0.2698866757339715</v>
       </c>
       <c r="H25">
-        <v>0.1378291073480966</v>
+        <v>0.4363565486522702</v>
       </c>
       <c r="I25">
-        <v>0.2855029284582145</v>
+        <v>0.3107377176148489</v>
       </c>
       <c r="J25">
-        <v>1.749733208063901</v>
+        <v>0.5158506026481291</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.30575184400726</v>
+        <v>12.81024619287518</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9759705081817458</v>
+        <v>1.333970502984414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_83/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_83/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02226487226428731</v>
+        <v>0.06641331345056756</v>
       </c>
       <c r="D2">
-        <v>0.1942197725494594</v>
+        <v>0.1604451951832857</v>
       </c>
       <c r="E2">
-        <v>0.2625407690567556</v>
+        <v>0.6469297500324132</v>
       </c>
       <c r="F2">
-        <v>0.5831919000491652</v>
+        <v>0.1145137926396522</v>
       </c>
       <c r="G2">
-        <v>0.2793809808603456</v>
+        <v>0.2493248535230848</v>
       </c>
       <c r="H2">
-        <v>0.4517105476455114</v>
+        <v>0.1155993084123921</v>
       </c>
       <c r="I2">
-        <v>0.318431087807987</v>
+        <v>0.2187420901080728</v>
       </c>
       <c r="J2">
-        <v>0.4494539272028533</v>
+        <v>1.377684409688044</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.84818221959324</v>
+        <v>33.55548329174599</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.385613698168555</v>
+        <v>0.7255979605632348</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01946368688227551</v>
+        <v>0.05786659544962447</v>
       </c>
       <c r="D3">
-        <v>0.1949775260558084</v>
+        <v>0.1375221014081802</v>
       </c>
       <c r="E3">
-        <v>0.2447303387886919</v>
+        <v>0.5422877259713559</v>
       </c>
       <c r="F3">
-        <v>0.6114998318860358</v>
+        <v>0.08500262829559802</v>
       </c>
       <c r="G3">
-        <v>0.2872547831137737</v>
+        <v>0.1985987681810428</v>
       </c>
       <c r="H3">
-        <v>0.4632136331428001</v>
+        <v>0.10696030237348</v>
       </c>
       <c r="I3">
-        <v>0.3248150021420884</v>
+        <v>0.182887908069965</v>
       </c>
       <c r="J3">
-        <v>0.4051300180841508</v>
+        <v>1.155172977053923</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.512207204291258</v>
+        <v>28.66401644527701</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.425936122475548</v>
+        <v>0.5991522186432405</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01773476375910121</v>
+        <v>0.05262785574303308</v>
       </c>
       <c r="D4">
-        <v>0.1956772522827066</v>
+        <v>0.1255006206921223</v>
       </c>
       <c r="E4">
-        <v>0.2340505805380388</v>
+        <v>0.4832037943079612</v>
       </c>
       <c r="F4">
-        <v>0.6300841584133643</v>
+        <v>0.07447491602113132</v>
       </c>
       <c r="G4">
-        <v>0.2927764708682687</v>
+        <v>0.1724758339423715</v>
       </c>
       <c r="H4">
-        <v>0.4708084202134373</v>
+        <v>0.1040355145076575</v>
       </c>
       <c r="I4">
-        <v>0.3292969436077975</v>
+        <v>0.1642789518627943</v>
       </c>
       <c r="J4">
-        <v>0.3782208815716785</v>
+        <v>1.028185009795777</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.688592963863641</v>
+        <v>25.77528139929814</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.453251554731835</v>
+        <v>0.5371412148656418</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01702803181346013</v>
+        <v>0.05049362286487025</v>
       </c>
       <c r="D5">
-        <v>0.1960205567107778</v>
+        <v>0.1210133977275518</v>
       </c>
       <c r="E5">
-        <v>0.229760960970502</v>
+        <v>0.4601410969446391</v>
       </c>
       <c r="F5">
-        <v>0.6379550542237986</v>
+        <v>0.07176904656199312</v>
       </c>
       <c r="G5">
-        <v>0.2951960149413466</v>
+        <v>0.16287670046313</v>
       </c>
       <c r="H5">
-        <v>0.4740356636906071</v>
+        <v>0.1033516045469796</v>
       </c>
       <c r="I5">
-        <v>0.3312625328013539</v>
+        <v>0.1574116719321239</v>
       </c>
       <c r="J5">
-        <v>0.367328698961586</v>
+        <v>0.9783174118745706</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.352105464001397</v>
+        <v>24.61997408099364</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.465015707467018</v>
+        <v>0.5151511002049318</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01691055007075448</v>
+        <v>0.0501392298757608</v>
       </c>
       <c r="D6">
-        <v>0.1960810523530512</v>
+        <v>0.1202905846106574</v>
       </c>
       <c r="E6">
-        <v>0.2290523933242596</v>
+        <v>0.4563658086743914</v>
       </c>
       <c r="F6">
-        <v>0.6392798438445801</v>
+        <v>0.07140724083176764</v>
       </c>
       <c r="G6">
-        <v>0.2956079121081814</v>
+        <v>0.1613404609798721</v>
       </c>
       <c r="H6">
-        <v>0.4745794941889869</v>
+        <v>0.1032664247689041</v>
       </c>
       <c r="I6">
-        <v>0.3315972580898787</v>
+        <v>0.1563110432627788</v>
       </c>
       <c r="J6">
-        <v>0.3655244052621072</v>
+        <v>0.9701371817801032</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.296179561475412</v>
+        <v>24.42928512032529</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.467007065022116</v>
+        <v>0.5116812781248399</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0177252412545883</v>
+        <v>0.05259907222966831</v>
       </c>
       <c r="D7">
-        <v>0.1956816477398888</v>
+        <v>0.1254385571357659</v>
       </c>
       <c r="E7">
-        <v>0.2339924786881014</v>
+        <v>0.4828889803569325</v>
       </c>
       <c r="F7">
-        <v>0.6301891094183425</v>
+        <v>0.07443238717079126</v>
       </c>
       <c r="G7">
-        <v>0.2928084201866454</v>
+        <v>0.1723423944804807</v>
       </c>
       <c r="H7">
-        <v>0.4708514101293702</v>
+        <v>0.1040243403021108</v>
       </c>
       <c r="I7">
-        <v>0.3293228916749271</v>
+        <v>0.1641836027946084</v>
       </c>
       <c r="J7">
-        <v>0.3780736924777557</v>
+        <v>1.027505481037252</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.684058477147573</v>
+        <v>25.75961992751905</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.453407661025764</v>
+        <v>0.5368321288335096</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02130093284080203</v>
+        <v>0.06346340027575792</v>
       </c>
       <c r="D8">
-        <v>0.1944318903473459</v>
+        <v>0.1520427505274995</v>
       </c>
       <c r="E8">
-        <v>0.256345436200931</v>
+        <v>0.6095803927127648</v>
       </c>
       <c r="F8">
-        <v>0.5926998035474895</v>
+        <v>0.1025419967852237</v>
       </c>
       <c r="G8">
-        <v>0.2819512146087746</v>
+        <v>0.2306453466171661</v>
       </c>
       <c r="H8">
-        <v>0.4555655663145188</v>
+        <v>0.1120657121911321</v>
       </c>
       <c r="I8">
-        <v>0.3205142481139092</v>
+        <v>0.2055780822119253</v>
       </c>
       <c r="J8">
-        <v>0.4341053968389872</v>
+        <v>1.298589185947975</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.38821143663955</v>
+        <v>31.84033388865572</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.398979976293305</v>
+        <v>0.6783171689008896</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02823863289725637</v>
+        <v>0.08494659932181037</v>
       </c>
       <c r="D9">
-        <v>0.1938797188295922</v>
+        <v>0.2273848807938776</v>
       </c>
       <c r="E9">
-        <v>0.3023042043232351</v>
+        <v>0.9176193561850567</v>
       </c>
       <c r="F9">
-        <v>0.5289498476475174</v>
+        <v>0.238222555868731</v>
       </c>
       <c r="G9">
-        <v>0.2662646868179053</v>
+        <v>0.3982277400920253</v>
       </c>
       <c r="H9">
-        <v>0.4298738527928663</v>
+        <v>0.1522680535498324</v>
       </c>
       <c r="I9">
-        <v>0.3078007008672401</v>
+        <v>0.3223858097605188</v>
       </c>
       <c r="J9">
-        <v>0.5465838604959572</v>
+        <v>1.941964715038353</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.70514322334702</v>
+        <v>45.12294141803687</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.312995346068064</v>
+        <v>1.119820746587976</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03328724380502024</v>
+        <v>0.1010821471326153</v>
       </c>
       <c r="D10">
-        <v>0.1946879194204598</v>
+        <v>0.3130987861311638</v>
       </c>
       <c r="E10">
-        <v>0.3375092451963155</v>
+        <v>1.223851575597379</v>
       </c>
       <c r="F10">
-        <v>0.4883700950012191</v>
+        <v>0.4322267703938891</v>
       </c>
       <c r="G10">
-        <v>0.258367602787402</v>
+        <v>0.5831311249872329</v>
       </c>
       <c r="H10">
-        <v>0.4136971627431905</v>
+        <v>0.2087723649820816</v>
       </c>
       <c r="I10">
-        <v>0.3013778854286784</v>
+        <v>0.4486197201640607</v>
       </c>
       <c r="J10">
-        <v>0.6310748923327196</v>
+        <v>2.565382399479205</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.12947485575597</v>
+        <v>56.74292966594817</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.263102542856842</v>
+        <v>1.631716382008648</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03557284802597849</v>
+        <v>0.1086129644975244</v>
       </c>
       <c r="D11">
-        <v>0.195332428891632</v>
+        <v>0.3666488961533219</v>
       </c>
       <c r="E11">
-        <v>0.3538719585472307</v>
+        <v>1.401727222776316</v>
       </c>
       <c r="F11">
-        <v>0.4713346292938496</v>
+        <v>0.5617598911164166</v>
       </c>
       <c r="G11">
-        <v>0.2556090768305381</v>
+        <v>0.6938886624354836</v>
       </c>
       <c r="H11">
-        <v>0.4069430900491824</v>
+        <v>0.2457369432868717</v>
       </c>
       <c r="I11">
-        <v>0.2991197182559588</v>
+        <v>0.5231728891112368</v>
       </c>
       <c r="J11">
-        <v>0.6699791705659379</v>
+        <v>2.921803495630172</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.23029923280217</v>
+        <v>62.92599021035437</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.243426911844409</v>
+        <v>1.944699996006591</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03643670308539981</v>
+        <v>0.1115131007682919</v>
       </c>
       <c r="D12">
-        <v>0.1956174609620689</v>
+        <v>0.3905244827064678</v>
       </c>
       <c r="E12">
-        <v>0.360121100839379</v>
+        <v>1.478614764434596</v>
       </c>
       <c r="F12">
-        <v>0.4650942477034796</v>
+        <v>0.6205022874668984</v>
       </c>
       <c r="G12">
-        <v>0.2546883016878922</v>
+        <v>0.7420164124947775</v>
       </c>
       <c r="H12">
-        <v>0.404474080211628</v>
+        <v>0.2623103279617993</v>
       </c>
       <c r="I12">
-        <v>0.298362562173395</v>
+        <v>0.5553440193693078</v>
       </c>
       <c r="J12">
-        <v>0.6847842435452662</v>
+        <v>3.074759887605012</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.64692037473128</v>
+        <v>65.48760985551473</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.236422304067531</v>
+        <v>2.081743454341051</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03625073102236342</v>
+        <v>0.1108857861210026</v>
       </c>
       <c r="D13">
-        <v>0.1955542329107089</v>
+        <v>0.3851815920209276</v>
       </c>
       <c r="E13">
-        <v>0.3587728331281852</v>
+        <v>1.461523809847691</v>
       </c>
       <c r="F13">
-        <v>0.4664287672922676</v>
+        <v>0.6073202191131557</v>
       </c>
       <c r="G13">
-        <v>0.2548810372646386</v>
+        <v>0.7313139181392643</v>
       </c>
       <c r="H13">
-        <v>0.4050018582232298</v>
+        <v>0.258601221876404</v>
       </c>
       <c r="I13">
-        <v>0.2985212314993291</v>
+        <v>0.5482013310288636</v>
       </c>
       <c r="J13">
-        <v>0.6815923747773525</v>
+        <v>3.04081440600504</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.55720320398649</v>
+        <v>64.92366712289044</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.237910841088137</v>
+        <v>2.051220118716856</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03564395141593479</v>
+        <v>0.1088503973579122</v>
       </c>
       <c r="D14">
-        <v>0.1953550506857624</v>
+        <v>0.3685271097836846</v>
       </c>
       <c r="E14">
-        <v>0.3543850008359044</v>
+        <v>1.407824937971569</v>
       </c>
       <c r="F14">
-        <v>0.4708169757259348</v>
+        <v>0.5663642899866872</v>
       </c>
       <c r="G14">
-        <v>0.255530819971284</v>
+        <v>0.697702892550268</v>
       </c>
       <c r="H14">
-        <v>0.4067381777297783</v>
+        <v>0.2470402040002995</v>
       </c>
       <c r="I14">
-        <v>0.2990554485649852</v>
+        <v>0.5257273711837627</v>
       </c>
       <c r="J14">
-        <v>0.6711956999728557</v>
+        <v>2.933957297071572</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.26457933517418</v>
+        <v>63.13148293852356</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.242841629593158</v>
+        <v>1.955540163549102</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03527206409580685</v>
+        <v>0.1076109177017059</v>
       </c>
       <c r="D15">
-        <v>0.1952384168356076</v>
+        <v>0.3588630163615107</v>
       </c>
       <c r="E15">
-        <v>0.3517043111214235</v>
+        <v>1.376355761056246</v>
       </c>
       <c r="F15">
-        <v>0.4735324761345368</v>
+        <v>0.5427083896271014</v>
       </c>
       <c r="G15">
-        <v>0.2559450726202073</v>
+        <v>0.678026043022868</v>
       </c>
       <c r="H15">
-        <v>0.4078133125189112</v>
+        <v>0.240336812030165</v>
       </c>
       <c r="I15">
-        <v>0.2993955056240338</v>
+        <v>0.5125402482522006</v>
       </c>
       <c r="J15">
-        <v>0.6648370937499521</v>
+        <v>2.87118959091066</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.08530954486667</v>
+        <v>62.06654150029317</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.245920330420432</v>
+        <v>1.899658416052546</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.033137646365347</v>
+        <v>0.1005952368556393</v>
       </c>
       <c r="D16">
-        <v>0.1946514678783728</v>
+        <v>0.3099928584806548</v>
       </c>
       <c r="E16">
-        <v>0.3364471474463215</v>
+        <v>1.213270345153632</v>
       </c>
       <c r="F16">
-        <v>0.4895125550474191</v>
+        <v>0.4248469611122374</v>
       </c>
       <c r="G16">
-        <v>0.2585649913281003</v>
+        <v>0.5765894511978615</v>
       </c>
       <c r="H16">
-        <v>0.4141508670338538</v>
+        <v>0.2066485183715798</v>
       </c>
       <c r="I16">
-        <v>0.3015390313166435</v>
+        <v>0.4441929621084313</v>
       </c>
       <c r="J16">
-        <v>0.6285422982145121</v>
+        <v>2.544059284943501</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.05749720377156</v>
+        <v>56.36304782053492</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.264450177200672</v>
+        <v>1.613351706567101</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0318253755029474</v>
+        <v>0.09635037340599695</v>
       </c>
       <c r="D17">
-        <v>0.1943631077525225</v>
+        <v>0.2844677757771876</v>
       </c>
       <c r="E17">
-        <v>0.3271784675847016</v>
+        <v>1.125029951282798</v>
       </c>
       <c r="F17">
-        <v>0.4996847073363284</v>
+        <v>0.3649678944351678</v>
       </c>
       <c r="G17">
-        <v>0.2603885643911781</v>
+        <v>0.5223547498102903</v>
       </c>
       <c r="H17">
-        <v>0.4181948131340221</v>
+        <v>0.1893421986727049</v>
       </c>
       <c r="I17">
-        <v>0.3030257720317735</v>
+        <v>0.4073866099530363</v>
       </c>
       <c r="J17">
-        <v>0.6064004653000268</v>
+        <v>2.365669177481209</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.42648697414222</v>
+        <v>53.13835440743389</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.276599635785175</v>
+        <v>1.461711807591939</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03106955722915927</v>
+        <v>0.09392502715499518</v>
       </c>
       <c r="D18">
-        <v>0.1942232364310001</v>
+        <v>0.271029772785468</v>
       </c>
       <c r="E18">
-        <v>0.3218799145112428</v>
+        <v>1.07757074356843</v>
       </c>
       <c r="F18">
-        <v>0.505669187999878</v>
+        <v>0.3340981942149241</v>
       </c>
       <c r="G18">
-        <v>0.2615156881235876</v>
+        <v>0.4934717182902091</v>
       </c>
       <c r="H18">
-        <v>0.420577609508932</v>
+        <v>0.1803682256656742</v>
       </c>
       <c r="I18">
-        <v>0.3039432133559927</v>
+        <v>0.3877057745784214</v>
       </c>
       <c r="J18">
-        <v>0.5937088542182494</v>
+        <v>2.269284971347673</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.06335329408637</v>
+        <v>51.36035915117503</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.283871307155067</v>
+        <v>1.381449611889479</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03081347451558258</v>
+        <v>0.09310623193501044</v>
       </c>
       <c r="D19">
-        <v>0.1941803071985504</v>
+        <v>0.2666653759491595</v>
       </c>
       <c r="E19">
-        <v>0.3200914191615567</v>
+        <v>1.061993097871948</v>
       </c>
       <c r="F19">
-        <v>0.5077182250057781</v>
+        <v>0.3241875379234287</v>
       </c>
       <c r="G19">
-        <v>0.2619106349767222</v>
+        <v>0.4840438218040646</v>
       </c>
       <c r="H19">
-        <v>0.4213940935729781</v>
+        <v>0.1774795553500894</v>
       </c>
       <c r="I19">
-        <v>0.30426446794079</v>
+        <v>0.38126925963563</v>
       </c>
       <c r="J19">
-        <v>0.5894190531731738</v>
+        <v>2.23757857177452</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.9403677571085</v>
+        <v>50.76982218015092</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.286381728642198</v>
+        <v>1.355333438682351</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03196517656748199</v>
+        <v>0.09680047096765065</v>
       </c>
       <c r="D20">
-        <v>0.1943911065535673</v>
+        <v>0.2870491530584047</v>
       </c>
       <c r="E20">
-        <v>0.3281617453232997</v>
+        <v>1.13406340489496</v>
       </c>
       <c r="F20">
-        <v>0.4985879828094895</v>
+        <v>0.3709542879282353</v>
       </c>
       <c r="G20">
-        <v>0.2601863150012775</v>
+        <v>0.5278773929241964</v>
       </c>
       <c r="H20">
-        <v>0.4177584351150756</v>
+        <v>0.1910783483032787</v>
       </c>
       <c r="I20">
-        <v>0.3028610391219146</v>
+        <v>0.4111433331527294</v>
       </c>
       <c r="J20">
-        <v>0.6087529313215043</v>
+        <v>2.383979497814238</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.4936787303526</v>
+        <v>53.47324700299089</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.275276866827085</v>
+        <v>1.47709981988865</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03582222269362489</v>
+        <v>0.1094466580769904</v>
       </c>
       <c r="D21">
-        <v>0.195412433857868</v>
+        <v>0.3733018907906001</v>
       </c>
       <c r="E21">
-        <v>0.3556723525297372</v>
+        <v>1.42328763889229</v>
       </c>
       <c r="F21">
-        <v>0.4695222911303709</v>
+        <v>0.5780834986394368</v>
       </c>
       <c r="G21">
-        <v>0.2553365711517301</v>
+        <v>0.7073777463282767</v>
       </c>
       <c r="H21">
-        <v>0.406225760501556</v>
+        <v>0.2503540535969648</v>
       </c>
       <c r="I21">
-        <v>0.2988958569440285</v>
+        <v>0.5322030871236194</v>
       </c>
       <c r="J21">
-        <v>0.6742474325743331</v>
+        <v>2.964758896873263</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.35053604639251</v>
+        <v>63.65074551173893</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.241381135215192</v>
+        <v>1.983052947261086</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03833335759749446</v>
+        <v>0.1180253115536942</v>
       </c>
       <c r="D22">
-        <v>0.1963193201149807</v>
+        <v>0.4529267398113177</v>
       </c>
       <c r="E22">
-        <v>0.373962183177909</v>
+        <v>1.673889662686804</v>
       </c>
       <c r="F22">
-        <v>0.4517563482205986</v>
+        <v>0.7754177794976158</v>
       </c>
       <c r="G22">
-        <v>0.2528905584068326</v>
+        <v>0.8641410489736074</v>
       </c>
       <c r="H22">
-        <v>0.3992057643418292</v>
+        <v>0.3054760717899825</v>
       </c>
       <c r="I22">
-        <v>0.2968765923085499</v>
+        <v>0.6363968119166117</v>
       </c>
       <c r="J22">
-        <v>0.7174793926360792</v>
+        <v>3.460535503611226</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.56274586896438</v>
+        <v>71.72242548620778</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.221834276785557</v>
+        <v>2.431756776582546</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03699402357742088</v>
+        <v>0.1134037967503048</v>
       </c>
       <c r="D23">
-        <v>0.1958129941760092</v>
+        <v>0.407275752491941</v>
       </c>
       <c r="E23">
-        <v>0.3641711682796256</v>
+        <v>1.531794740150843</v>
       </c>
       <c r="F23">
-        <v>0.4611238784599188</v>
+        <v>0.6619407950030975</v>
       </c>
       <c r="G23">
-        <v>0.2541285249779293</v>
+        <v>0.7753189303729755</v>
       </c>
       <c r="H23">
-        <v>0.4029045881427606</v>
+        <v>0.2739327680453982</v>
       </c>
       <c r="I23">
-        <v>0.2979011047864972</v>
+        <v>0.5775283774514932</v>
       </c>
       <c r="J23">
-        <v>0.6943646690007483</v>
+        <v>3.180191208563713</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.91587162084102</v>
+        <v>67.2229687229181</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.232024427053432</v>
+        <v>2.176886743100596</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03190197678875961</v>
+        <v>0.09659693612532294</v>
       </c>
       <c r="D24">
-        <v>0.1943783676760518</v>
+        <v>0.2858783492089714</v>
       </c>
       <c r="E24">
-        <v>0.3277171118150619</v>
+        <v>1.129969426764688</v>
       </c>
       <c r="F24">
-        <v>0.4990833876244238</v>
+        <v>0.3682369898657001</v>
       </c>
       <c r="G24">
-        <v>0.2602775070272827</v>
+        <v>0.5253735925352743</v>
       </c>
       <c r="H24">
-        <v>0.4179555414651759</v>
+        <v>0.1902904538421524</v>
       </c>
       <c r="I24">
-        <v>0.3029353197833302</v>
+        <v>0.4094403990484707</v>
       </c>
       <c r="J24">
-        <v>0.6076892634052342</v>
+        <v>2.375682614499055</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.4633024548009</v>
+        <v>53.32161099942238</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.275873998284965</v>
+        <v>1.470121774906829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02637009676713831</v>
+        <v>0.0790970372873403</v>
       </c>
       <c r="D25">
-        <v>0.1938202035343579</v>
+        <v>0.2033077601321907</v>
       </c>
       <c r="E25">
-        <v>0.2896294282097642</v>
+        <v>0.8246314472793159</v>
       </c>
       <c r="F25">
-        <v>0.5451192713015836</v>
+        <v>0.1893935209918496</v>
       </c>
       <c r="G25">
-        <v>0.2698866757339715</v>
+        <v>0.3448994171151298</v>
       </c>
       <c r="H25">
-        <v>0.4363565486522702</v>
+        <v>0.1378291073481108</v>
       </c>
       <c r="I25">
-        <v>0.3107377176148489</v>
+        <v>0.2855029284582074</v>
       </c>
       <c r="J25">
-        <v>0.5158506026481291</v>
+        <v>1.749733208063958</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.81024619287518</v>
+        <v>41.30575184400715</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.333970502984414</v>
+        <v>0.9759705081817458</v>
       </c>
     </row>
   </sheetData>
